--- a/Documentation/backlogs/masterProductBacklog_4-17-16.xlsx
+++ b/Documentation/backlogs/masterProductBacklog_4-17-16.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>Sprints</t>
   </si>
@@ -260,6 +260,18 @@
   </si>
   <si>
     <t>Sprint 1 Backlog (Done)</t>
+  </si>
+  <si>
+    <t>Code compiles; waiting on SMTP IP</t>
+  </si>
+  <si>
+    <t>Class has most data</t>
+  </si>
+  <si>
+    <t>Anticipated, Waiting on SMPT IP</t>
+  </si>
+  <si>
+    <t>Anticipated, waiting on SMTP IP</t>
   </si>
 </sst>
 </file>
@@ -492,24 +504,24 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -856,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A29" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -877,11 +889,11 @@
       <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
       <c r="F1" s="20" t="s">
         <v>34</v>
       </c>
@@ -891,14 +903,14 @@
       <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="47"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
@@ -910,7 +922,7 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="47"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="22" t="s">
         <v>27</v>
       </c>
@@ -922,7 +934,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="47"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="22" t="s">
         <v>28</v>
       </c>
@@ -934,7 +946,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="22" t="s">
         <v>23</v>
       </c>
@@ -946,14 +958,14 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="41" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="24">
         <v>42477</v>
       </c>
-      <c r="E7" s="50"/>
+      <c r="E7" s="43"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -996,8 +1008,8 @@
       <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1015,10 +1027,10 @@
       <c r="E11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="44" t="s">
+      <c r="F11" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="50"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1034,8 +1046,8 @@
         <v>42486</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1051,8 +1063,8 @@
         <v>42493</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -1060,8 +1072,8 @@
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1437,8 +1449,8 @@
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="48"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
@@ -1588,10 +1600,12 @@
       <c r="D50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F50" s="32"/>
+      <c r="E50" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="F50" s="32" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
@@ -1609,7 +1623,9 @@
       <c r="E51" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="32"/>
+      <c r="F51" s="32" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
@@ -1627,7 +1643,9 @@
       <c r="E52" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="32"/>
+      <c r="F52" s="32" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
@@ -1643,7 +1661,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="42">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="F53" s="32"/>
     </row>
@@ -1661,9 +1679,11 @@
         <v>58</v>
       </c>
       <c r="E54" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="F54" s="32"/>
+        <v>0.6</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="55" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
@@ -1850,8 +1870,8 @@
       <c r="F69" s="13"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="48"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="48"/>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
     </row>
@@ -1982,16 +2002,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/backlogs/masterProductBacklog_4-17-16.xlsx
+++ b/Documentation/backlogs/masterProductBacklog_4-17-16.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
   <si>
     <t>Sprints</t>
   </si>
@@ -272,6 +272,75 @@
   </si>
   <si>
     <t>Anticipated, waiting on SMTP IP</t>
+  </si>
+  <si>
+    <t>Migrate Appointment DB to webapp server (LINQ)</t>
+  </si>
+  <si>
+    <t>Naif, tom</t>
+  </si>
+  <si>
+    <t>Process data from welcome page to calendar page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    drop down; email</t>
+  </si>
+  <si>
+    <t>Integrate calendar/email with webapp</t>
+  </si>
+  <si>
+    <t>Jimmy, Andrew</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    create interface/methods to retrieve data from UI/logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    logic on data in controller for sending ics</t>
+  </si>
+  <si>
+    <t>Jimmy, Tom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    connecting to UI</t>
+  </si>
+  <si>
+    <t>Andrew, Jimmy</t>
+  </si>
+  <si>
+    <t>Populate proffessors drop down with data from Café</t>
+  </si>
+  <si>
+    <t>Andrew, Naif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (Last, First)</t>
+  </si>
+  <si>
+    <t>Dynamically link the static office hours table to café data</t>
+  </si>
+  <si>
+    <t>Andrew, Tom</t>
+  </si>
+  <si>
+    <t>Dynamically link the dynamic office hours radio buttons with café data</t>
+  </si>
+  <si>
+    <t>Create appoint records in appointment database</t>
+  </si>
+  <si>
+    <t>Create a login/user table(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     hashing/security for passowords</t>
+  </si>
+  <si>
+    <t>Naif, Tom</t>
+  </si>
+  <si>
+    <t>change landing page to login / sign up page</t>
+  </si>
+  <si>
+    <t>validation of Gannon email (regex)</t>
   </si>
 </sst>
 </file>
@@ -386,7 +455,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,9 +524,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -505,6 +571,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,8 +592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -866,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A43" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A56" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -889,11 +959,11 @@
       <c r="B1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
       <c r="F1" s="20" t="s">
         <v>34</v>
       </c>
@@ -903,14 +973,14 @@
       <c r="B2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="46"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
@@ -922,7 +992,7 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="46"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="22" t="s">
         <v>27</v>
       </c>
@@ -934,7 +1004,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="46"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="22" t="s">
         <v>28</v>
       </c>
@@ -946,7 +1016,7 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="22" t="s">
         <v>23</v>
       </c>
@@ -958,14 +1028,14 @@
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="49"/>
+      <c r="C7" s="40" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="24">
         <v>42477</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
@@ -1008,8 +1078,8 @@
       <c r="E10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1027,10 +1097,10 @@
       <c r="E11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1046,14 +1116,14 @@
         <v>42486</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="16">
@@ -1063,17 +1133,17 @@
         <v>42493</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
     </row>
     <row r="15" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -1152,14 +1222,14 @@
       <c r="E19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="27"/>
+      <c r="F19" s="26"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>2</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="18">
@@ -1169,7 +1239,7 @@
       <c r="E20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="30"/>
+      <c r="F20" s="29"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,7 +1256,7 @@
       <c r="E21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="27"/>
+      <c r="F21" s="26"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1203,14 +1273,14 @@
       <c r="E22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F22" s="27"/>
+      <c r="F22" s="26"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>5</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="27" t="s">
         <v>43</v>
       </c>
       <c r="C23" s="18">
@@ -1220,7 +1290,7 @@
       <c r="E23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="30"/>
+      <c r="F23" s="29"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1237,7 +1307,7 @@
       <c r="E24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="27"/>
+      <c r="F24" s="26"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,7 +1324,7 @@
       <c r="E25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="27"/>
+      <c r="F25" s="26"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,7 +1335,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="10"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="27"/>
+      <c r="F26" s="26"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,18 +1346,18 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="27"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>10</v>
       </c>
-      <c r="B28" s="30"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="30"/>
+      <c r="F28" s="29"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,7 +1368,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1309,16 +1379,16 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="27"/>
+      <c r="F30" s="26"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="32"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="32"/>
+      <c r="F31" s="31"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
@@ -1353,7 +1423,7 @@
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1371,7 +1441,7 @@
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="31" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1389,7 +1459,7 @@
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="31" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1407,7 +1477,7 @@
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="30" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1425,7 +1495,7 @@
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="31"/>
+      <c r="B38" s="30"/>
       <c r="C38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="13"/>
@@ -1434,7 +1504,7 @@
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="32"/>
+      <c r="B39" s="31"/>
       <c r="C39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="13"/>
@@ -1443,14 +1513,14 @@
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="32"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="13"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="47"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
     </row>
@@ -1497,7 +1567,7 @@
       <c r="A45" s="3">
         <v>1</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="36" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="15">
@@ -1515,7 +1585,7 @@
       <c r="A46" s="3">
         <v>2</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C46" s="15">
@@ -1524,7 +1594,7 @@
       <c r="D46" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="41">
         <v>0.9</v>
       </c>
       <c r="F46" s="10" t="s">
@@ -1535,7 +1605,7 @@
       <c r="A47" s="3">
         <v>3</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="36" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="15">
@@ -1547,7 +1617,7 @@
       <c r="E47" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F47" s="33" t="s">
+      <c r="F47" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1555,7 +1625,7 @@
       <c r="A48" s="3">
         <v>4</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>50</v>
       </c>
       <c r="C48" s="15">
@@ -1573,7 +1643,7 @@
       <c r="A49" s="3">
         <v>5</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C49" s="5">
@@ -1585,13 +1655,13 @@
       <c r="E49" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>6</v>
       </c>
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="33" t="s">
         <v>53</v>
       </c>
       <c r="C50" s="5">
@@ -1600,10 +1670,10 @@
       <c r="D50" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="42">
+      <c r="E50" s="41">
         <v>0.6</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="F50" s="31" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1611,7 +1681,7 @@
       <c r="A51" s="3">
         <v>7</v>
       </c>
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="33" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="5">
@@ -1623,7 +1693,7 @@
       <c r="E51" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="31" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1631,7 +1701,7 @@
       <c r="A52" s="3">
         <v>8</v>
       </c>
-      <c r="B52" s="36" t="s">
+      <c r="B52" s="35" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="5">
@@ -1643,7 +1713,7 @@
       <c r="E52" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="F52" s="31" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1651,7 +1721,7 @@
       <c r="A53" s="3">
         <v>9</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="33" t="s">
         <v>56</v>
       </c>
       <c r="C53" s="5">
@@ -1660,16 +1730,16 @@
       <c r="D53" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E53" s="42">
+      <c r="E53" s="41">
         <v>0.6</v>
       </c>
-      <c r="F53" s="32"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>10</v>
       </c>
-      <c r="B54" s="34" t="s">
+      <c r="B54" s="33" t="s">
         <v>57</v>
       </c>
       <c r="C54" s="5">
@@ -1678,10 +1748,10 @@
       <c r="D54" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E54" s="42">
+      <c r="E54" s="41">
         <v>0.6</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="31" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1692,13 +1762,13 @@
       <c r="B55" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="32">
+      <c r="C55" s="31">
         <v>4</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E55" s="42">
+      <c r="E55" s="41">
         <v>0.8</v>
       </c>
     </row>
@@ -1725,7 +1795,7 @@
       <c r="A57" s="3">
         <v>13</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="33" t="s">
         <v>62</v>
       </c>
       <c r="C57" s="11">
@@ -1746,16 +1816,16 @@
       <c r="A58" s="3">
         <v>14</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="40">
+      <c r="C58" s="39">
         <v>2</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E58" s="42">
+      <c r="E58" s="41">
         <v>0.8</v>
       </c>
       <c r="F58" s="11"/>
@@ -1765,7 +1835,7 @@
       <c r="A59" s="3">
         <v>15</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="9"/>
@@ -1810,8 +1880,13 @@
       <c r="A63" s="1">
         <v>1</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="1"/>
+      <c r="B63" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44" t="s">
+        <v>85</v>
+      </c>
       <c r="E63" s="1"/>
       <c r="F63" s="13"/>
     </row>
@@ -1819,8 +1894,13 @@
       <c r="A64" s="1">
         <v>2</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="1"/>
+      <c r="B64" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44" t="s">
+        <v>61</v>
+      </c>
       <c r="E64" s="1"/>
       <c r="F64" s="13"/>
     </row>
@@ -1828,8 +1908,13 @@
       <c r="A65" s="1">
         <v>3</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="1"/>
+      <c r="B65" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44" t="s">
+        <v>61</v>
+      </c>
       <c r="E65" s="1"/>
       <c r="F65" s="13"/>
     </row>
@@ -1837,8 +1922,13 @@
       <c r="A66" s="1">
         <v>4</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="1"/>
+      <c r="B66" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44" t="s">
+        <v>89</v>
+      </c>
       <c r="E66" s="1"/>
       <c r="F66" s="13"/>
     </row>
@@ -1846,8 +1936,13 @@
       <c r="A67" s="1">
         <v>5</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="1"/>
+      <c r="B67" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44" t="s">
+        <v>58</v>
+      </c>
       <c r="E67" s="1"/>
       <c r="F67" s="13"/>
     </row>
@@ -1855,8 +1950,13 @@
       <c r="A68" s="1">
         <v>6</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44" t="s">
+        <v>92</v>
+      </c>
       <c r="E68" s="1"/>
       <c r="F68" s="13"/>
     </row>
@@ -1864,88 +1964,164 @@
       <c r="A69" s="1">
         <v>7</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="1"/>
+      <c r="B69" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44" t="s">
+        <v>94</v>
+      </c>
       <c r="E69" s="1"/>
       <c r="F69" s="13"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
+    <row r="70" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>8</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="13"/>
-      <c r="G70" s="13"/>
-    </row>
-    <row r="72" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B72" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="14" t="s">
+    </row>
+    <row r="71" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>9</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D71" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="13"/>
+    </row>
+    <row r="72" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>10</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D72" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="13"/>
+    </row>
+    <row r="73" spans="1:7" s="44" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>11</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="13"/>
+    </row>
+    <row r="74" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>12</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D74" s="44" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="13"/>
+    </row>
+    <row r="75" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>13</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C75" s="44">
+        <v>5</v>
+      </c>
+      <c r="D75" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="13"/>
+    </row>
+    <row r="76" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>14</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="44">
+        <v>5</v>
+      </c>
+      <c r="D76" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
         <v>15</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>2</v>
-      </c>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>3</v>
-      </c>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>4</v>
-      </c>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C77" s="44">
+        <v>5</v>
+      </c>
+      <c r="D77" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
+        <v>16</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C78" s="44">
         <v>5</v>
       </c>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="13"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="13"/>
+      <c r="G80" s="13"/>
     </row>
     <row r="82" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B82" s="17" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
@@ -1975,43 +2151,120 @@
         <v>1</v>
       </c>
       <c r="C84" s="1"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
       <c r="C85" s="1"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>3</v>
       </c>
       <c r="C86" s="1"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>4</v>
       </c>
       <c r="C87" s="1"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>5</v>
       </c>
       <c r="C88" s="1"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B92" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>1</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>4</v>
+      </c>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>5</v>
+      </c>
+      <c r="C98" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B41:C41"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
